--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>-24.1431217124897</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.14807912455824</v>
+        <v>-8.718494483715524</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.937719086979796</v>
+        <v>-2.936200379850156</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.735675127285074</v>
+        <v>-5.336805028909048</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-23.36794057842652</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.427534328714883</v>
+        <v>-8.976137911337851</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.949489067234508</v>
+        <v>-3.002211770778139</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.679325855854285</v>
+        <v>-5.25619572031254</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-22.45607756079585</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.25296474597719</v>
+        <v>-9.799421190934112</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.800655768529765</v>
+        <v>-2.878777539586345</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.554660948195369</v>
+        <v>-5.122418569875784</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-21.46476456644605</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.0070159281464</v>
+        <v>-10.57794188711451</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.734133777790956</v>
+        <v>-2.799922599570629</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.781563648745323</v>
+        <v>-5.349268901214371</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-20.4083315366258</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.81966825783518</v>
+        <v>-11.36155548910034</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.572561668421214</v>
+        <v>-2.646808117836643</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.319261343101134</v>
+        <v>-4.899783960052232</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-19.33048848712087</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.50768186447072</v>
+        <v>-12.04138640645981</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.542056602799992</v>
+        <v>-2.629382262754305</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.418854490818145</v>
+        <v>-5.015925778561184</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-18.27237461177306</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.04193946653304</v>
+        <v>-12.55375367817076</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.426608676341652</v>
+        <v>-2.504887555032332</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.95219244832766</v>
+        <v>-4.577386002574727</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.27134056703268</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.02051055013501</v>
+        <v>-13.51269939981298</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.192321916988964</v>
+        <v>-2.247060835170221</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.811515654293315</v>
+        <v>-4.491002988425018</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.35714186298749</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.78322883678545</v>
+        <v>-14.26648873592536</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.174280723673065</v>
+        <v>-2.216320108097848</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.414897432006065</v>
+        <v>-4.08680432279241</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.55659208038998</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.4551781878342</v>
+        <v>-14.94617563795357</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.989351946033685</v>
+        <v>-2.052456845730804</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.187444854736758</v>
+        <v>-3.876987077450908</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.88157443542045</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.11029083742849</v>
+        <v>-15.59148215271941</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.0331587913421</v>
+        <v>-2.060652627309725</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.667287662834981</v>
+        <v>-3.371296880189238</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.34047784159489</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.08213247736981</v>
+        <v>-16.54805816754728</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.838227494331641</v>
+        <v>-1.878918371563725</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.028278545736015</v>
+        <v>-2.729067056591207</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.94898667031135</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.69097692872144</v>
+        <v>-17.1829432092511</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.57767757547845</v>
+        <v>-1.625726326907585</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.685993380241929</v>
+        <v>-2.350215089260181</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.70091771821482</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.59365193274993</v>
+        <v>-18.08030273832585</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.435050028320686</v>
+        <v>-1.469639892428527</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.110403378108284</v>
+        <v>-1.776012871227758</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.58188966234696</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.49002953911155</v>
+        <v>-18.97630066790506</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.272600734660549</v>
+        <v>-1.312781012081807</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.707016435251862</v>
+        <v>-1.38182981726907</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.57154903440495</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.28732459756698</v>
+        <v>-19.76246726894502</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.055556538150415</v>
+        <v>-1.071935009005414</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.197529470166092</v>
+        <v>-0.8669226388068254</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.6406977414851</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.24628341151205</v>
+        <v>-20.72540614295398</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9724727843168209</v>
+        <v>-0.9781286591444467</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.8329219283268628</v>
+        <v>-0.4962271761461935</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.76198281817086</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.08268517855572</v>
+        <v>-21.5585610188929</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8398084796216108</v>
+        <v>-0.8208639174096332</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4612707275587849</v>
+        <v>-0.1312792344330794</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.91896437704556</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.73423672177706</v>
+        <v>-22.19760941290039</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5994207071446784</v>
+        <v>-0.5690727491575573</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1030784141120014</v>
+        <v>0.2566326064644223</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.09240073004244</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.35456312272088</v>
+        <v>-22.82793833321529</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3107354294846186</v>
+        <v>-0.2681461683404837</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2444698571244588</v>
+        <v>0.5877107607259912</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-14.26251881439416</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.00591828139959</v>
+        <v>-23.46287574413048</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1087473812424688</v>
+        <v>-0.02396162803945079</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3216882592849591</v>
+        <v>0.5805230864658835</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-14.41225940263832</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.46365137335202</v>
+        <v>-23.95773860694204</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.02470788930142917</v>
+        <v>0.08158851747054478</v>
       </c>
       <c r="G23" t="n">
-        <v>0.564249354033618</v>
+        <v>0.8469383569921672</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-14.52516257059145</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.85130136819269</v>
+        <v>-24.32142968758235</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.05502966268286674</v>
+        <v>0.05440889677112146</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5469544219796979</v>
+        <v>0.7856271027843641</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-14.58682537145845</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.12767988118152</v>
+        <v>-24.60783690454795</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2411051352941352</v>
+        <v>0.3384464069223685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525103368536857</v>
+        <v>0.7628726804454442</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-14.59418606210074</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.13033761865839</v>
+        <v>-24.62044479218453</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2384604901201065</v>
+        <v>0.3496272335492026</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3802370375931581</v>
+        <v>0.6201534871677883</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-14.54802896994224</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.09301146325663</v>
+        <v>-24.55999762996428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04286148566471907</v>
+        <v>0.166937239695757</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3762831621349568</v>
+        <v>0.5882606374453436</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-14.4467663121904</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.1757417249135</v>
+        <v>-24.67617872538176</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2049441948452878</v>
+        <v>0.29947062136255</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08003053343237937</v>
+        <v>0.2866401645776585</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-14.28997769469336</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.229302335839</v>
+        <v>-24.7034892691096</v>
       </c>
       <c r="F29" t="n">
-        <v>0.163781994710901</v>
+        <v>0.2726314005370116</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01077767907783263</v>
+        <v>0.171480268781836</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-14.07781026252062</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.01248070847718</v>
+        <v>-24.50181543613565</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03350048913288493</v>
+        <v>0.1236409941981689</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1907313816373574</v>
+        <v>-0.0262789656424363</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.807744822379</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.5495237876909</v>
+        <v>-24.02291209048816</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03441695033180575</v>
+        <v>0.128079284861514</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.692493888046509</v>
+        <v>-0.5111916782942865</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-13.48268870262089</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.59872466177011</v>
+        <v>-24.0782139776916</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09077931406543648</v>
+        <v>0.1777514818430228</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.8179836107844534</v>
+        <v>-0.6168072853184906</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-13.11478886659305</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.20298362377325</v>
+        <v>-23.67660758802166</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02963825979457574</v>
+        <v>0.1068566619550761</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.320819686026627</v>
+        <v>-1.103657658790916</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.71034704895309</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.604613014695</v>
+        <v>-23.11285302765693</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.07199728716574373</v>
+        <v>-0.04060194495128461</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.388336691781408</v>
+        <v>-1.185942782151165</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.27634346349543</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.24841073128016</v>
+        <v>-22.7570304210245</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2648469080243687</v>
+        <v>-0.2381386102272475</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.479655504102447</v>
+        <v>-1.22315110682735</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.82055908206178</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.50224111542167</v>
+        <v>-22.04348682384759</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3771526818006949</v>
+        <v>-0.3553932744777462</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.665906604328842</v>
+        <v>-1.439435949772665</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.34849406913677</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.70573159513674</v>
+        <v>-21.24185821315154</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3170197348486471</v>
+        <v>-0.2916599442442237</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.804868306690923</v>
+        <v>-1.558785382477839</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.86728664236287</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.32221876799406</v>
+        <v>-20.87205302708415</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3904151845793634</v>
+        <v>-0.3642043942902278</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.065889548446415</v>
+        <v>-1.815027933696102</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.39308416920746</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.67104690155513</v>
+        <v>-20.21759499263195</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2700707368582174</v>
+        <v>-0.2017158237215656</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.23650843907979</v>
+        <v>-1.971127460478002</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.937796787716968</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.31392815694137</v>
+        <v>-19.89775003420858</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5093849405021282</v>
+        <v>-0.4786703980354389</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.45556885022755</v>
+        <v>-2.192020794023604</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.510523811708058</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.75279205714499</v>
+        <v>-19.37636216583968</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2535613429748008</v>
+        <v>-0.1933891191142278</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.328102189760505</v>
+        <v>-2.032818391468215</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.118901313397695</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.19300446454131</v>
+        <v>-18.78923784490247</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01640736929977484</v>
+        <v>0.04652733046040237</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.381806816017265</v>
+        <v>-2.031705545726668</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.767162037186878</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.29482012038753</v>
+        <v>-17.8912106083828</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0004555167603683328</v>
+        <v>0.05082160579248852</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.309157627548527</v>
+        <v>-1.91407120469376</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.456563988245918</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.96315281249808</v>
+        <v>-17.55070599607519</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03486208862842444</v>
+        <v>0.08203365576716347</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.508540307525174</v>
+        <v>-2.106789902523968</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.192907689973291</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.41668009188444</v>
+        <v>-17.01473330234061</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01058895915986431</v>
+        <v>0.04959092932536627</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.565557286400891</v>
+        <v>-2.158137914269217</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.981301719240324</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.97817959280651</v>
+        <v>-16.62115249431264</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07121941361989773</v>
+        <v>0.08440336258151589</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.464916754456542</v>
+        <v>-2.104223811166989</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.821216183070021</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.33073903267747</v>
+        <v>-15.98893828238853</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05795691084122923</v>
+        <v>0.09478555873500466</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.804989320770377</v>
+        <v>-2.403396023403272</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.710403655071866</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.67271989185232</v>
+        <v>-15.33540980143809</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07197876718471784</v>
+        <v>0.0827013632120915</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.716027122960849</v>
+        <v>-2.333731879982447</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.644379632184814</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.09360806025425</v>
+        <v>-14.79252437180307</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1770837743980947</v>
+        <v>0.2169629288539923</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.958404925469723</v>
+        <v>-2.538364573398626</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.614804518975101</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.41056952869856</v>
+        <v>-14.12463363463526</v>
       </c>
       <c r="F50" t="n">
-        <v>0.30386963511737</v>
+        <v>0.3708629487584822</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.91878761707066</v>
+        <v>-2.473793335783232</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.617175993512535</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.60289227408964</v>
+        <v>-13.34638787681454</v>
       </c>
       <c r="F51" t="n">
-        <v>0.310036109755823</v>
+        <v>0.3539869703954974</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.023355839867526</v>
+        <v>-2.542331541159669</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.651072250711427</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.00021429737646</v>
+        <v>-12.74251850054277</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3865344352600283</v>
+        <v>0.4438132601925799</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.999855156266628</v>
+        <v>-2.548039785198661</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.710995967998494</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.36348324097195</v>
+        <v>-12.11287037997563</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4440096447352058</v>
+        <v>0.4944935644929015</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.042405140502237</v>
+        <v>-2.57601803637143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.791179307433441</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.9845919967324</v>
+        <v>-11.72668672305324</v>
       </c>
       <c r="F54" t="n">
-        <v>0.341627836512908</v>
+        <v>0.3912607565858915</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.179023320655649</v>
+        <v>-2.677823783268692</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.885594521162469</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.47509193934379</v>
+        <v>-11.27161136857768</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1162962123039606</v>
+        <v>0.1304097147673413</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.645881747688759</v>
+        <v>-3.150194069798168</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.984352178367895</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.06024923150086</v>
+        <v>-10.85598312256425</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1639521946478435</v>
+        <v>0.219895604690539</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.735969883542676</v>
+        <v>-3.220303351515611</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.08189557021838</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.29624789917193</v>
+        <v>-10.09334338973086</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1175399810739246</v>
+        <v>0.1795320350294975</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.117099911568164</v>
+        <v>-3.56799563808333</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.177414639983427</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.01007634365748</v>
+        <v>-9.792377532005263</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.05225409448042082</v>
+        <v>-0.001259574911897782</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.140063810752551</v>
+        <v>-3.606421546923797</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.26789079596068</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.42478494511812</v>
+        <v>-9.23113669378615</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01460829613227421</v>
+        <v>0.09117208315068825</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.428317042418834</v>
+        <v>-3.88261676767285</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.350014687673088</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.08625727053961</v>
+        <v>-8.896248679397639</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1036282908313539</v>
+        <v>-0.04853588047337062</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.33847766031891</v>
+        <v>-3.810294886775155</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.421180188509881</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.545034563365496</v>
+        <v>-8.366010414307732</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1288309738016766</v>
+        <v>-0.07067496457872939</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.727646362289217</v>
+        <v>-4.208693662248879</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.477066213635519</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.059087558789148</v>
+        <v>-7.876240457301603</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09048361877826094</v>
+        <v>-0.02257384393822782</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.724766055664038</v>
+        <v>-4.17426090577514</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.514790710353472</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.601707959013448</v>
+        <v>-7.389494822251911</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1033926293802028</v>
+        <v>-0.05471544741466532</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.710181230298354</v>
+        <v>-4.175229736185427</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.53738071401739</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.259998854844398</v>
+        <v>-7.064295111966277</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2648076311158435</v>
+        <v>-0.2218125085836151</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.910990971284749</v>
+        <v>-4.410406772131353</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.548355905585998</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.888661869344522</v>
+        <v>-6.674681271699351</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2121372967835796</v>
+        <v>-0.1767357098995523</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.173164335690314</v>
+        <v>-4.684533409031413</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.549570344717472</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.640955499579064</v>
+        <v>-6.423623272406412</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3211569025466325</v>
+        <v>-0.2862135462620656</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.145866884265314</v>
+        <v>-4.666649323349615</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.542855371184162</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.484855972797165</v>
+        <v>-6.275771896414799</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4001689501964494</v>
+        <v>-0.3463595855169552</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.238547296081894</v>
+        <v>-4.762642087785151</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.528943371351623</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.211658889398866</v>
+        <v>-6.002417705382401</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3529581061491852</v>
+        <v>-0.3153570123877479</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.235405143399879</v>
+        <v>-4.77856232804069</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.506036268162262</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.079924138205419</v>
+        <v>-5.863233433872011</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6241520672126989</v>
+        <v>-0.5616494134462987</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.289554907953258</v>
+        <v>-4.863348081243708</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.47704954558386</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.886799578987118</v>
+        <v>-5.646424898813027</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5592535220262628</v>
+        <v>-0.5162322148883509</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.12990736710125</v>
+        <v>-4.711477368279685</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.447432277600887</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.781485094928273</v>
+        <v>-5.525190174498644</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6302923572454685</v>
+        <v>-0.5966058620337072</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.070717065953807</v>
+        <v>-4.678170549850334</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.418871178680671</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.792561183132373</v>
+        <v>-5.52492832844181</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7517627430110029</v>
+        <v>-0.7025094997204294</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.929647502834208</v>
+        <v>-4.577006325792317</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.392328546287146</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.841107442069494</v>
+        <v>-5.562254483843571</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7887092216303538</v>
+        <v>-0.7433836691922983</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.736038528410764</v>
+        <v>-4.376262046320131</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.368104735878077</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.069201542178045</v>
+        <v>-5.806020070453668</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6730649106293876</v>
+        <v>-0.6388154463954321</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.595636672736093</v>
+        <v>-4.253063476579489</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.342040625686469</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.271333605751455</v>
+        <v>-6.015811131189487</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.010034601169733</v>
+        <v>-0.969553200783116</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.426196089358474</v>
+        <v>-4.075597311559892</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.313423768226542</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.752397181367837</v>
+        <v>-6.525861065297451</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.939493273458513</v>
+        <v>-0.8949139822824358</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.242314695946432</v>
+        <v>-3.915491540108424</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.285893402642264</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.20062526145717</v>
+        <v>-6.980766219836065</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9979242210411364</v>
+        <v>-0.9567096516953828</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.161836310378342</v>
+        <v>-3.839752568169039</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.25947144129627</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.791127396527542</v>
+        <v>-7.550229024239782</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.056774122314695</v>
+        <v>-1.019173028553258</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.792266785762098</v>
+        <v>-3.458334509481033</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.233269275711185</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.212175855917453</v>
+        <v>-7.969431468929009</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.035564591711099</v>
+        <v>-0.9864422714489427</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.621687172037249</v>
+        <v>-3.253426877705178</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.20600818247517</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.677738144969231</v>
+        <v>-8.445258123408701</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.210464665373717</v>
+        <v>-1.183533798428287</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.254513538841042</v>
+        <v>-2.881121061795014</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.173562396305259</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.576668750384984</v>
+        <v>-9.381069745929597</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.157885977161345</v>
+        <v>-1.106629611535988</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.250612032594207</v>
+        <v>-2.867413420719727</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.1321420971117</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.35769007640815</v>
+        <v>-10.18785672394528</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.242527715033105</v>
+        <v>-1.198589946696272</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.053455044100654</v>
+        <v>-2.678818798284663</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.0825344943175</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.16878442205877</v>
+        <v>-11.02255649161953</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.362387747549107</v>
+        <v>-1.297004787157527</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.704270235008978</v>
+        <v>-2.318047301178059</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.024317243191605</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.36312974879523</v>
+        <v>-12.23036070567728</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.437694673494715</v>
+        <v>-1.382654632348099</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.558710012014668</v>
+        <v>-2.193879901027129</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.954634110763113</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.2439929762894</v>
+        <v>-13.10493962780743</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.517596997737769</v>
+        <v>-1.474785167445325</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.226230981349035</v>
+        <v>-1.852380273703547</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.870041994309759</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.40171913197755</v>
+        <v>-14.29970390823482</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.69918723815251</v>
+        <v>-1.665068696946972</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.969870599405196</v>
+        <v>-1.607645856683161</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.765608319138475</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.47026052070787</v>
+        <v>-15.38726841299416</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.744669898224666</v>
+        <v>-1.717437908313876</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.555787245127084</v>
+        <v>-1.194282579061344</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.634836874045165</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.85875160628428</v>
+        <v>-16.77312794569939</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.719323199923084</v>
+        <v>-1.719270830711718</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.246730344245299</v>
+        <v>-0.8787188036672205</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.473856143354301</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.50798899525651</v>
+        <v>-18.45920707486824</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.954618066594585</v>
+        <v>-1.960850002747247</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.053605785026998</v>
+        <v>-0.6703417116383085</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.28151532527612</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.08837396358411</v>
+        <v>-20.0600684048403</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.167341803166951</v>
+        <v>-2.176035092253857</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7606916935490601</v>
+        <v>-0.3688259771933571</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.053586537320622</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.8645805055154</v>
+        <v>-21.88852632741292</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.354116595507015</v>
+        <v>-2.373257542261618</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.9021933026624355</v>
+        <v>-0.5175283528696818</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.786365694630942</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.54119389972968</v>
+        <v>-23.59687546371554</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.447648007008306</v>
+        <v>-2.466893692185643</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.7070918057150336</v>
+        <v>-0.339630141856308</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.47737069900331</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.62685011162802</v>
+        <v>-25.66502726671449</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.600042412085997</v>
+        <v>-2.64989790130729</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6961597328421923</v>
+        <v>-0.3430210482923151</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.124929928021983</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.84737013509896</v>
+        <v>-27.90788275883342</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.466330723163449</v>
+        <v>-2.524408178569346</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.8145927043484463</v>
+        <v>-0.472451554185619</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.729678869417533</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.12592833706729</v>
+        <v>-30.19952017134063</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.939460363257746</v>
+        <v>-3.018825903084289</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.166906573819295</v>
+        <v>-0.8415759405052438</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.298989682763144</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.32844644413086</v>
+        <v>-32.38008248653863</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.99266748200652</v>
+        <v>-3.085675201394142</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.413853590019932</v>
+        <v>-1.077315945473363</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.841533649169418</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.5517551281071</v>
+        <v>-34.60415052407969</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.325918958539816</v>
+        <v>-3.459486632131105</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.606716303181399</v>
+        <v>-1.30165255466634</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.36272696237464</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.06850159567495</v>
+        <v>-37.12629102041832</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.584125355184337</v>
+        <v>-3.72909642455077</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.025827101750734</v>
+        <v>-1.713457848249991</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.877106832407444</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.57269254481757</v>
+        <v>-39.66182494256405</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.520915717064484</v>
+        <v>-3.65339672951991</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.484267178056613</v>
+        <v>-2.189742733329144</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.387082285604768</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.13650584110142</v>
+        <v>-42.23468502011153</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.696260929023721</v>
+        <v>-3.828912141416089</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.808105288846708</v>
+        <v>-2.539817819014057</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.913205068112985</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.42820871512284</v>
+        <v>-44.50824196239431</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.936452316958027</v>
+        <v>-4.095707088724783</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.372972694952979</v>
+        <v>-3.131982676545327</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.446630516263358</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.76264486561964</v>
+        <v>-46.84767937257666</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.083086108785359</v>
+        <v>-4.252304123014668</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.68480516403721</v>
+        <v>-3.435763379381897</v>
       </c>
     </row>
   </sheetData>
